--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_18_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_18_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-382524.2664664494</v>
+        <v>-385013.0054959661</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -662,13 +662,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>181.3135049890388</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>79.0318776430356</v>
       </c>
       <c r="U2" t="n">
-        <v>127.6072314066356</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -832,10 +832,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>131.3542190999261</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,16 +865,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>209.5752120108933</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>331.5681064216864</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>228.5394683647113</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>42.86209348694693</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1111,16 +1111,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>96.58288679137065</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>370.5199892763247</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>192.0524966157165</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,16 +1184,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1297,19 +1297,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>115.8212906733745</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>130.8836446858849</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576164</v>
@@ -1528,10 +1528,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>115.7228684476123</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>61.39258527121172</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>57.24347904696366</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>125.9491534982824</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.930370072263</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2011,16 +2011,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>19.91555826189143</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>55.52079624060473</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569567</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>39.96816871822059</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>78.89395497654178</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>41.33703994143007</v>
       </c>
       <c r="E25" t="n">
-        <v>103.1686991936197</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206857</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,16 +2716,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>99.974274198339</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710086</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0177171766865</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673027</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417126</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>123.7971820797035</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673027</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652592</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,19 +4135,19 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
         <v>116.0100653541842</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1046.404739265753</v>
+        <v>1632.511388127729</v>
       </c>
       <c r="C2" t="n">
-        <v>677.4422223253416</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D2" t="n">
-        <v>494.2972677909589</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E2" t="n">
-        <v>108.5090151927147</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F2" t="n">
         <v>108.5090151927147</v>
@@ -4328,7 +4328,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4337,7 +4337,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3135.484973698856</v>
       </c>
       <c r="U2" t="n">
-        <v>2880.441212180452</v>
+        <v>3135.484973698856</v>
       </c>
       <c r="V2" t="n">
-        <v>2549.378324836881</v>
+        <v>3135.484973698856</v>
       </c>
       <c r="W2" t="n">
-        <v>2196.609669566767</v>
+        <v>2782.716318428742</v>
       </c>
       <c r="X2" t="n">
-        <v>1823.143911305687</v>
+        <v>2409.250560167662</v>
       </c>
       <c r="Y2" t="n">
-        <v>1433.004579329875</v>
+        <v>2019.11122819185</v>
       </c>
     </row>
     <row r="3">
@@ -4398,19 +4398,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064538</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
         <v>765.1517452158131</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>980.7518458718754</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C4" t="n">
-        <v>811.8156629439685</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D4" t="n">
-        <v>661.6990235316327</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E4" t="n">
-        <v>513.7859299492396</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F4" t="n">
-        <v>366.8959824513292</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G4" t="n">
-        <v>199.1931458260482</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218342</v>
@@ -4513,25 +4513,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088493</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V4" t="n">
-        <v>1672.610059882606</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="W4" t="n">
-        <v>1383.192889845645</v>
+        <v>1157.088627004002</v>
       </c>
       <c r="X4" t="n">
-        <v>1383.192889845645</v>
+        <v>1157.088627004002</v>
       </c>
       <c r="Y4" t="n">
-        <v>1162.400310702115</v>
+        <v>945.3964936596652</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1647.321240915451</v>
+        <v>1514.348043559526</v>
       </c>
       <c r="C5" t="n">
-        <v>1278.358723975039</v>
+        <v>1514.348043559526</v>
       </c>
       <c r="D5" t="n">
-        <v>1278.358723975039</v>
+        <v>1156.082344952776</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>1156.082344952776</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4583,34 +4583,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3094.757873766027</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>2763.694986422457</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2410.926331152342</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X5" t="n">
-        <v>2037.460572891262</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y5" t="n">
-        <v>1647.321240915451</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="6">
@@ -4641,31 +4641,31 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1326.594608541191</v>
       </c>
       <c r="V7" t="n">
-        <v>1134.908724368016</v>
+        <v>1071.910120335304</v>
       </c>
       <c r="W7" t="n">
-        <v>1134.908724368016</v>
+        <v>782.492950298343</v>
       </c>
       <c r="X7" t="n">
-        <v>1134.908724368016</v>
+        <v>554.5033994003256</v>
       </c>
       <c r="Y7" t="n">
-        <v>1134.908724368016</v>
+        <v>456.9449278938906</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1514.348043559526</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C8" t="n">
-        <v>1514.348043559526</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D8" t="n">
-        <v>1514.348043559526</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>1128.559790961282</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>717.5738861716743</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>302.5014360166708</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4802,16 +4802,16 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
@@ -4826,28 +4826,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796418</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="X8" t="n">
-        <v>1904.487375535338</v>
+        <v>2382.341170533246</v>
       </c>
       <c r="Y8" t="n">
-        <v>1514.348043559526</v>
+        <v>1992.201838557434</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>913.8018420618822</v>
+        <v>812.5736815556436</v>
       </c>
       <c r="C10" t="n">
-        <v>744.8656591339753</v>
+        <v>643.6374986277367</v>
       </c>
       <c r="D10" t="n">
-        <v>594.7490197216396</v>
+        <v>493.5208592154009</v>
       </c>
       <c r="E10" t="n">
-        <v>594.7490197216396</v>
+        <v>345.6077656330078</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>198.7178181350975</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>198.7178181350975</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4963,16 +4963,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V10" t="n">
-        <v>1424.011591242373</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W10" t="n">
-        <v>1134.594421205412</v>
+        <v>812.5736815556436</v>
       </c>
       <c r="X10" t="n">
-        <v>1134.594421205412</v>
+        <v>812.5736815556436</v>
       </c>
       <c r="Y10" t="n">
-        <v>913.8018420618822</v>
+        <v>812.5736815556436</v>
       </c>
     </row>
     <row r="11">
@@ -5036,22 +5036,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5118,19 +5118,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>866.4638174991043</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C13" t="n">
-        <v>697.5276345711974</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2330.071297269541</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2330.071297269541</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U13" t="n">
-        <v>2040.996070613739</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V13" t="n">
-        <v>1786.311582407852</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W13" t="n">
-        <v>1496.894412370891</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X13" t="n">
-        <v>1268.904861472874</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y13" t="n">
-        <v>1048.112282329344</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="14">
@@ -5267,25 +5267,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5297,7 +5297,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5355,22 +5355,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>614.6217844681063</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C16" t="n">
-        <v>614.6217844681063</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="D16" t="n">
-        <v>464.5051450557705</v>
+        <v>613.6374994204294</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>465.7244058380363</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>318.8344583401259</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>151.6383590550059</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X16" t="n">
-        <v>1017.062828441876</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y16" t="n">
-        <v>796.270249298346</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5507,13 +5507,13 @@
         <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075809</v>
@@ -5522,7 +5522,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5531,34 +5531,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,25 +5586,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876697</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597628</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D19" t="n">
-        <v>261.8464821474271</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E19" t="n">
-        <v>113.933388565034</v>
+        <v>296.7882229101294</v>
       </c>
       <c r="F19" t="n">
-        <v>113.933388565034</v>
+        <v>149.8982754122191</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797191</v>
+        <v>149.8982754122191</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797191</v>
+        <v>149.8982754122191</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5680,7 +5680,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5689,7 +5689,7 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
@@ -5698,25 +5698,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235166</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258107</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602305</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396418</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359457</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614396</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179095</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="20">
@@ -5741,40 +5741,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192606</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797191</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797191</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438167</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>741.8431516380895</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C22" t="n">
-        <v>572.9069687101826</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D22" t="n">
-        <v>422.7903292978468</v>
+        <v>422.7903292978464</v>
       </c>
       <c r="E22" t="n">
-        <v>422.7903292978468</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F22" t="n">
-        <v>422.7903292978468</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>255.5942300127268</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5917,7 +5917,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570818</v>
@@ -5926,13 +5926,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
         <v>2197.062545487568</v>
@@ -5953,7 +5953,7 @@
         <v>1144.284195611859</v>
       </c>
       <c r="Y22" t="n">
-        <v>923.4916164683292</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5966,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111727</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,37 +5999,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797191</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797191</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.793114229131</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458823</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797191</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797191</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,25 +6212,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797193</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
@@ -6239,37 +6239,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797193</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797193</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797193</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438167</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>194.8007783998295</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>194.8007783998295</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797193</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332388</v>
@@ -6476,37 +6476,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245697</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403286</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
@@ -6695,25 +6695,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245697</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403286</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797191</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797191</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438167</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7072,55 +7072,55 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
         <v>2035.268256189238</v>
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332388</v>
@@ -7187,10 +7187,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438167</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7391,40 +7391,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245697</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403286</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7622,43 +7622,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245697</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403286</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7783,16 +7783,16 @@
         <v>926.9575315319325</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345477</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7819,25 +7819,25 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22550,13 +22550,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>173.3695366316441</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -22598,13 +22598,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.498151944316063</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185644</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012052</v>
       </c>
       <c r="S13" t="n">
-        <v>65.30341755403234</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>164.3170701178254</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>83.05123379926019</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856703</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>99.76050189075471</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>145.6085800303774</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>25.74504007796079</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671011769</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>106.4657939283486</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>61.40075786968208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>107.2784330767823</v>
       </c>
       <c r="E25" t="n">
-        <v>43.26526345294947</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>45.44677382459224</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>57.22910392194137</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194143</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25360,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>57.22910392194107</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194143</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1140984.230936231</v>
+        <v>1140984.23093623</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1140984.23093623</v>
+        <v>1140984.230936231</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1140984.230936231</v>
+        <v>1140984.23093623</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1140984.230936231</v>
+        <v>1140984.23093623</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1140984.230936231</v>
+        <v>1140984.23093623</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1140984.230936231</v>
+        <v>1140984.23093623</v>
       </c>
     </row>
     <row r="15">
@@ -26317,43 +26317,43 @@
         <v>287364.6194524993</v>
       </c>
       <c r="D2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524994</v>
       </c>
       <c r="E2" t="n">
+        <v>282501.3098915022</v>
+      </c>
+      <c r="F2" t="n">
         <v>282501.3098915021</v>
-      </c>
-      <c r="F2" t="n">
-        <v>282501.3098915022</v>
       </c>
       <c r="G2" t="n">
         <v>282501.3098915023</v>
       </c>
       <c r="H2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915022</v>
       </c>
       <c r="I2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915022</v>
       </c>
       <c r="J2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="K2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="L2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="M2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="N2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="O2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524992</v>
       </c>
       <c r="P2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524992</v>
       </c>
     </row>
     <row r="3">
@@ -26366,7 +26366,7 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.781995812663809e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551169</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363185</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>32547.31598570283</v>
+        <v>32547.31598570292</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815716</v>
+        <v>90964.01098815705</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.0109881571</v>
+        <v>90964.01098815704</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26430,34 +26430,34 @@
         <v>11776.97621680582</v>
       </c>
       <c r="G4" t="n">
+        <v>11776.9762168058</v>
+      </c>
+      <c r="H4" t="n">
         <v>11776.97621680582</v>
-      </c>
-      <c r="H4" t="n">
-        <v>11776.97621680575</v>
       </c>
       <c r="I4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
-        <v>11776.9762168057</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="K4" t="n">
-        <v>11776.97621680577</v>
+        <v>11776.97621680581</v>
       </c>
       <c r="L4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680583</v>
       </c>
       <c r="M4" t="n">
-        <v>11776.97621680577</v>
+        <v>11776.97621680586</v>
       </c>
       <c r="N4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="O4" t="n">
-        <v>19767.8354798993</v>
+        <v>19767.83547989929</v>
       </c>
       <c r="P4" t="n">
-        <v>19767.83547989927</v>
+        <v>19767.83547989929</v>
       </c>
     </row>
     <row r="5">
@@ -26482,25 +26482,25 @@
         <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
         <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1217683.076339647</v>
+        <v>-1217938.945579058</v>
       </c>
       <c r="C6" t="n">
-        <v>88466.66790294883</v>
+        <v>88466.66790294865</v>
       </c>
       <c r="D6" t="n">
-        <v>88466.66790294892</v>
+        <v>88466.66790294902</v>
       </c>
       <c r="E6" t="n">
-        <v>-155810.6579565659</v>
+        <v>-155845.3958820015</v>
       </c>
       <c r="F6" t="n">
-        <v>169601.8038507893</v>
+        <v>169567.0659253535</v>
       </c>
       <c r="G6" t="n">
-        <v>169601.8038507888</v>
+        <v>169567.0659253536</v>
       </c>
       <c r="H6" t="n">
-        <v>169601.8038507894</v>
+        <v>169567.0659253536</v>
       </c>
       <c r="I6" t="n">
-        <v>169601.8038507893</v>
+        <v>169567.0659253536</v>
       </c>
       <c r="J6" t="n">
-        <v>-47929.39854648806</v>
+        <v>-47964.13647192378</v>
       </c>
       <c r="K6" t="n">
-        <v>169601.8038507894</v>
+        <v>169567.0659253534</v>
       </c>
       <c r="L6" t="n">
-        <v>169601.8038507894</v>
+        <v>169567.0659253535</v>
       </c>
       <c r="M6" t="n">
-        <v>84546.77591527742</v>
+        <v>84512.03798984179</v>
       </c>
       <c r="N6" t="n">
-        <v>169601.8038507894</v>
+        <v>169567.0659253535</v>
       </c>
       <c r="O6" t="n">
         <v>145004.9501250527</v>
       </c>
       <c r="P6" t="n">
-        <v>164432.6681186847</v>
+        <v>164432.6681186845</v>
       </c>
     </row>
   </sheetData>
@@ -26722,10 +26722,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26802,25 +26802,25 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26960,7 +26960,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26972,7 +26972,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,32 +27009,32 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>341.3068326973554</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>341.3068326973555</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022929</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27430,10 +27430,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>123.3879405522685</v>
       </c>
       <c r="U2" t="n">
-        <v>123.3879405522663</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27552,10 +27552,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>13.40079581439466</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,16 +27585,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>9.009441341201523</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>75.30793932002501</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>22.45570359419071</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>136.9698866949904</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,16 +27831,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>122.0017665607241</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>12.21385238715584</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>102.555267771604</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,16 +27904,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28017,19 +28017,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>29.59975734955677</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>13.87137022843589</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,13 +28062,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28266,34 +28266,34 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
         <v>1.131184035330079e-12</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28503,7 +28503,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-5.053384223590637e-13</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28767,7 +28767,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.647567270996171e-13</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,31 +31829,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>616.9033572954396</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32266,7 +32266,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,25 +32309,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565758</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32339,7 +32339,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32406,7 +32406,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32503,7 +32503,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32549,34 +32549,34 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622656</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32643,7 +32643,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32728,7 +32728,7 @@
         <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043726</v>
@@ -32786,13 +32786,13 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862122</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622656</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,31 +33251,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>326.7634969305184</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663262</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,31 +33488,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>326.7634969305184</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622656</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669205</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622656</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663262</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,31 +34199,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>326.7634969305184</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,31 +34436,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>326.7634969305184</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,22 +35486,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>485.5616452121063</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,25 +35957,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121313</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36051,7 +36051,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402472</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36288,7 +36288,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
@@ -36376,7 +36376,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902405</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402472</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,25 +36905,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>188.9220579561594</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396399</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,25 +37142,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>188.9220579561594</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402472</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492471</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402472</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396399</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,25 +37853,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>188.9220579561594</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,25 +38090,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>188.9220579561594</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
